--- a/test.xlsx
+++ b/test.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7800" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="23670" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="asd" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,42 +24,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Здание пети</t>
-  </si>
-  <si>
-    <t>Здание коли</t>
-  </si>
-  <si>
-    <t>Здание ильи</t>
-  </si>
-  <si>
-    <t>Улица думкина</t>
-  </si>
-  <si>
-    <t>Переулок лупкина</t>
-  </si>
-  <si>
-    <t>Улица 54ая</t>
-  </si>
-  <si>
-    <t>улица негрика</t>
-  </si>
-  <si>
-    <t>ADRESS</t>
-  </si>
-  <si>
-    <t>KILOVATY</t>
-  </si>
-  <si>
-    <t>ИП ИНТЕГРАЛ</t>
-  </si>
-  <si>
-    <t>NAzvaKontrory</t>
-  </si>
-  <si>
-    <t>ZATRATY</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+  <si>
+    <t>ОАО Мышь</t>
+  </si>
+  <si>
+    <t>ИП вартилов</t>
+  </si>
+  <si>
+    <t>Дом не жилой</t>
+  </si>
+  <si>
+    <t>ИП ХЗКТОТЫЧ</t>
+  </si>
+  <si>
+    <t>Какой то чел</t>
+  </si>
+  <si>
+    <t>Фирма 12</t>
+  </si>
+  <si>
+    <t>Фирма 24</t>
+  </si>
+  <si>
+    <t>Фирма 72</t>
+  </si>
+  <si>
+    <t>фирма 19</t>
+  </si>
+  <si>
+    <t>213-31</t>
+  </si>
+  <si>
+    <t>321-26-54</t>
+  </si>
+  <si>
+    <t>555-54</t>
+  </si>
+  <si>
+    <t>345-435</t>
+  </si>
+  <si>
+    <t>1234-342</t>
+  </si>
+  <si>
+    <t>21-23-12</t>
+  </si>
+  <si>
+    <t>76 53 24</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>213-333</t>
+  </si>
+  <si>
+    <t>3213амвы</t>
+  </si>
+  <si>
+    <t>выа</t>
+  </si>
+  <si>
+    <t>авыа</t>
+  </si>
+  <si>
+    <t>аыв</t>
+  </si>
+  <si>
+    <t>вфы</t>
+  </si>
+  <si>
+    <t>ыв</t>
+  </si>
+  <si>
+    <t>ыва</t>
+  </si>
+  <si>
+    <t>авы</t>
+  </si>
+  <si>
+    <t>RASHOD_PTO</t>
+  </si>
+  <si>
+    <t>Kilovaty</t>
+  </si>
+  <si>
+    <t>KONTORY</t>
+  </si>
+  <si>
+    <t>NumberSCH</t>
+  </si>
+  <si>
+    <t>smth_inf</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>phones</t>
   </si>
 </sst>
 </file>
@@ -99,7 +164,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -380,101 +445,281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="3" max="4" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2">
+        <v>321</v>
+      </c>
+      <c r="D2">
+        <v>42</v>
+      </c>
+      <c r="E2">
+        <v>321</v>
+      </c>
+      <c r="F2">
+        <v>123</v>
+      </c>
+      <c r="G2">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>423</v>
+      </c>
+      <c r="E3">
+        <v>321</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>112</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>31</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>423</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>2333</v>
+      </c>
+      <c r="G5">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>423</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>321</v>
+      </c>
+      <c r="G6">
+        <v>1234</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>423</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <v>213</v>
+      </c>
+      <c r="G7">
+        <v>123</v>
+      </c>
+      <c r="H7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>423</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>532</v>
+      </c>
+      <c r="H8">
+        <v>5578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>423</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>22</v>
+      </c>
+      <c r="G9">
+        <v>123</v>
+      </c>
+      <c r="H9">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4534</v>
-      </c>
-      <c r="D3">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>442</v>
-      </c>
-      <c r="D4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>785</v>
-      </c>
-      <c r="D5">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1">
-        <v>124</v>
-      </c>
-      <c r="D6">
-        <v>65</v>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>423</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>223</v>
+      </c>
+      <c r="G10">
+        <v>313</v>
+      </c>
+      <c r="H10">
+        <v>31245</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>